--- a/data/income_statement/2digits/size/73_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/73_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>73-Advertising and market research</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>73-Advertising and market research</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1148 +841,1298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1774817.78179</v>
+        <v>1769490.28559</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1908545.69283</v>
+        <v>1924378.79406</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2441611.79687</v>
+        <v>2486133.25354</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2691283.94024</v>
+        <v>2705076.91532</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3855905.13797</v>
+        <v>3900936.71231</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4468483.00418</v>
+        <v>4524001.03725</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4841954.627560001</v>
+        <v>4929123.233330001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5015734.8503</v>
+        <v>5126999.75089</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5552496.44411</v>
+        <v>5672381.45217</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7062712.58231</v>
+        <v>7182323.860090001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7428973.39191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8013976.38013</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8269200.301</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1695434.36758</v>
+        <v>1690678.53889</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1813908.30701</v>
+        <v>1827900.96404</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2320081.40038</v>
+        <v>2352022.14677</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2557327.23089</v>
+        <v>2563008.88401</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3700790.22676</v>
+        <v>3734652.41354</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4226052.82072</v>
+        <v>4273980.00058</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4637717.148539999</v>
+        <v>4717997.87981</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4822876.61057</v>
+        <v>4903717.74365</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5265553.374400001</v>
+        <v>5379264.09545</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6666972.403510001</v>
+        <v>6794029.10984</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6870886.820060001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7455583.26079</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7523078.695</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>42083.94643</v>
+        <v>43865.13649</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>53435.04517</v>
+        <v>55327.23929</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>74002.40363</v>
+        <v>81715.47451999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>79692.16429</v>
+        <v>82826.93859000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>95306.40324</v>
+        <v>103377.5994</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>145437.15331</v>
+        <v>150133.3671</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>116884.89575</v>
+        <v>117848.87767</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>130316.63264</v>
+        <v>158242.91084</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>215799.31151</v>
+        <v>218435.38197</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>306898.10543</v>
+        <v>299390.70336</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>436359.95932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>438696.07901</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>625899.8320000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>37299.46778</v>
+        <v>34946.61021</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>41202.34065</v>
+        <v>41150.59073</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>47527.99286</v>
+        <v>52395.63225</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>54264.54506</v>
+        <v>59241.09272</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>59808.50797</v>
+        <v>62906.69936999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>96993.03015000001</v>
+        <v>99887.66957000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>87352.58327</v>
+        <v>93276.47585</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>62541.60709</v>
+        <v>65039.09639999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>71143.7582</v>
+        <v>74681.97474999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>88842.07337</v>
+        <v>88904.04689</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>121726.61253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>119697.04033</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>120221.774</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>26683.24892</v>
+        <v>26550.45603</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>29468.14995</v>
+        <v>34504.5507</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>30027.63556</v>
+        <v>33177.64367</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>41448.04786</v>
+        <v>43246.77934</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>50779.76504999999</v>
+        <v>59116.80767</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>51001.99872</v>
+        <v>51248.25232</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>47447.37403</v>
+        <v>51528.14894000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>54945.31249</v>
+        <v>57539.20754</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>54225.80293</v>
+        <v>55771.80825</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>108475.42514</v>
+        <v>113621.45433</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>103557.06631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>107570.10079</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>164522.484</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>20718.21628</v>
+        <v>19946.77977</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>26701.40821</v>
+        <v>27412.01569</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>24963.95135</v>
+        <v>27670.64569</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>36586.82275</v>
+        <v>38378.89455</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>46422.99928</v>
+        <v>55000.08798999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>45172.52123000001</v>
+        <v>43795.59871</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>40627.10487999999</v>
+        <v>44656.15547999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>49192.17423</v>
+        <v>51049.62598</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>49414.56753</v>
+        <v>50651.09607</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>95832.057</v>
+        <v>99651.47444000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>94810.16189999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>95061.56563</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>152602.145</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5291.5909</v>
+        <v>5910.28784</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2510.82832</v>
+        <v>6805.778230000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3205.28934</v>
+        <v>3513.37257</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3077.25449</v>
+        <v>3082.87232</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2973.01841</v>
+        <v>2735.17844</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3604.81608</v>
+        <v>5165.60149</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2501.3292</v>
+        <v>2497.1411</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3819.87794</v>
+        <v>4559.67542</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2683.09003</v>
+        <v>3017.13074</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8761.04134</v>
+        <v>10091.25841</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5274.85172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9287.71241</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5201.215</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>673.44174</v>
+        <v>693.38842</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>255.91342</v>
+        <v>286.75678</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1858.39487</v>
+        <v>1993.62541</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1783.97062</v>
+        <v>1785.01247</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1383.74736</v>
+        <v>1381.54124</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2224.66141</v>
+        <v>2287.05212</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4318.93995</v>
+        <v>4374.852360000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1933.26032</v>
+        <v>1929.90614</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2128.14537</v>
+        <v>2103.58144</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3882.3268</v>
+        <v>3878.72148</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3472.05269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3220.82275</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6719.124</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1748134.53287</v>
+        <v>1742939.82956</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1879077.54288</v>
+        <v>1889874.24336</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2411584.16131</v>
+        <v>2452955.60987</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2649835.89238</v>
+        <v>2661830.13598</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3805125.37292</v>
+        <v>3841819.90464</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4417481.00546</v>
+        <v>4472752.78493</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4794507.25353</v>
+        <v>4877595.08439</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4960789.537810001</v>
+        <v>5069460.543349999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5498270.64118</v>
+        <v>5616609.64392</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6954237.15717</v>
+        <v>7068702.40576</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7325416.3256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7906406.27934</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8104677.817</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1387792.35174</v>
+        <v>1386093.01974</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1440146.10573</v>
+        <v>1461483.64265</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1856963.23326</v>
+        <v>1888255.83502</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2018766.43149</v>
+        <v>2031169.05136</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2981898.47826</v>
+        <v>3011050.32137</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3561855.49227</v>
+        <v>3607379.09196</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3831573.88739</v>
+        <v>3920534.35965</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3965246.40388</v>
+        <v>4043411.47976</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4344842.68646</v>
+        <v>4444955.80928</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5613475.06165</v>
+        <v>5753996.77829</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5843386.25142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6387704.20514</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6401805.846</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>121927.50565</v>
+        <v>120401.96479</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>141996.51069</v>
+        <v>140955.26703</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>144984.83591</v>
+        <v>142157.83758</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>144071.42258</v>
+        <v>135904.44921</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>183655.87041</v>
+        <v>180770.32915</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>213377.75485</v>
+        <v>207451.25259</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>197853.15672</v>
+        <v>192854.78924</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>188245.48476</v>
+        <v>176925.90097</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>230454.60229</v>
+        <v>226461.92693</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>301147.39006</v>
+        <v>289753.1381</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>321656.2345899999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>317091.44125</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>470287.8</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>421655.3489</v>
+        <v>413906.9091</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>307570.21117</v>
+        <v>298536.33754</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>377241.8632</v>
+        <v>377914.28119</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>430494.26953</v>
+        <v>425752.92814</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>634423.9928000001</v>
+        <v>628126.49651</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>870326.52663</v>
+        <v>873186.9441900001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>965765.32268</v>
+        <v>989297.67333</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>985456.18738</v>
+        <v>995197.68099</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1176442.48251</v>
+        <v>1243414.34961</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1400749.07959</v>
+        <v>1448630.41939</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1396990.95479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1728536.50569</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1732906.71</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>842538.33792</v>
+        <v>849879.58728</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>990149.7878099999</v>
+        <v>1020607.8844</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1332481.37015</v>
+        <v>1365903.70317</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1441024.31843</v>
+        <v>1466335.25306</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2158703.91818</v>
+        <v>2197564.84849</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2465756.05291</v>
+        <v>2514462.68958</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2657329.043839999</v>
+        <v>2727621.34693</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2780131.23684</v>
+        <v>2859528.01784</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2923758.98991</v>
+        <v>2962078.06905</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3901681.88639</v>
+        <v>4006286.74918</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4117717.49147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4335482.38996</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4188947.481</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1671.15927</v>
+        <v>1904.55857</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>429.59606</v>
+        <v>1384.15368</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2255.164</v>
+        <v>2280.01308</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>3176.42095</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5114.69687</v>
+        <v>4588.64722</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>12395.15788</v>
+        <v>12278.2056</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10626.36415</v>
+        <v>10760.55015</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11413.4949</v>
+        <v>11759.87996</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>14186.61175</v>
+        <v>13001.46369</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9896.705609999999</v>
+        <v>9326.471619999998</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>7021.57057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6593.86824</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>9663.855</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>360342.18113</v>
+        <v>356846.80982</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>438931.43715</v>
+        <v>428390.60071</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>554620.92805</v>
+        <v>564699.77485</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>631069.46089</v>
+        <v>630661.0846199999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>823226.8946600001</v>
+        <v>830769.5832699999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>855625.51319</v>
+        <v>865373.69297</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>962933.3661399999</v>
+        <v>957060.72474</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>995543.13393</v>
+        <v>1026049.06359</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1153427.95472</v>
+        <v>1171653.83464</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1340762.09552</v>
+        <v>1314705.62747</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1482030.07418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1518702.0742</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1702871.971</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>299957.21993</v>
+        <v>296075.78581</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>335907.37224</v>
+        <v>331797.23772</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>449580.35239</v>
+        <v>453288.07299</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>505705.52273</v>
+        <v>506024.45234</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>659612.93522</v>
+        <v>699505.8517199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>707425.3529300001</v>
+        <v>703291.03276</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>765411.4659600001</v>
+        <v>770723.1748900001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>804482.1379399999</v>
+        <v>853464.3068299999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>913848.40426</v>
+        <v>903889.40886</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1098304.15343</v>
+        <v>1091567.41393</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1196395.98581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1244409.49531</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1274649.219</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1129.08465</v>
+        <v>1063.31436</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1106.05289</v>
+        <v>405.28039</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>766.44811</v>
+        <v>1200.06603</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>679.2297199999999</v>
+        <v>971.64003</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4989.01514</v>
+        <v>4985.11613</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>2203.08008</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2731.3259</v>
+        <v>2706.18326</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7355.76703</v>
+        <v>7731.124390000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>16024.30054</v>
+        <v>16014.0453</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>28060.83662</v>
+        <v>28059.44678</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>27807.84859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>32982.60182</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>12982.457</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>61182.65876000001</v>
+        <v>62008.96152</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>64434.12961</v>
+        <v>65026.76527</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>88324.07504</v>
+        <v>87919.68729</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>100206.82648</v>
+        <v>97709.72380000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>140195.26353</v>
+        <v>160902.0881</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>103380.01709</v>
+        <v>106292.26499</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>123141.88597</v>
+        <v>121046.70623</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>148522.06177</v>
+        <v>163001.90725</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>167240.14926</v>
+        <v>176488.12663</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>223493.56006</v>
+        <v>227647.9044</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>256362.75019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>268223.25465</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>270838.317</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>237645.47652</v>
+        <v>233003.50993</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>270367.18974</v>
+        <v>266365.19206</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>360489.82924</v>
+        <v>364168.31967</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>404819.46653</v>
+        <v>407343.08851</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>514428.65655</v>
+        <v>533618.64749</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>601842.25576</v>
+        <v>594795.68769</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>639538.2540900001</v>
+        <v>646970.2853999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>648604.30914</v>
+        <v>682731.2751900001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>730583.9544599999</v>
+        <v>711387.23693</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>846749.7567499999</v>
+        <v>835860.06275</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>912225.38703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>943203.63884</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>990828.4449999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>60384.96120000001</v>
+        <v>60771.02401</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>103024.06491</v>
+        <v>96593.36299000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>105040.57566</v>
+        <v>111411.70186</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>125363.93816</v>
+        <v>124636.63228</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>163613.95944</v>
+        <v>131263.73155</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>148200.16026</v>
+        <v>162082.66021</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>197521.90018</v>
+        <v>186337.54985</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>191060.99599</v>
+        <v>172584.75676</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>239579.55046</v>
+        <v>267764.42578</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>242457.94209</v>
+        <v>223138.21354</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>285634.08837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>274292.57889</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>428222.752</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>32225.07377</v>
+        <v>39895.23920999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>28662.60423</v>
+        <v>35436.66561</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>29670.38385</v>
+        <v>53402.48493999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>30181.59607</v>
+        <v>36975.84566000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>43036.84489</v>
+        <v>44310.70688</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>47772.83922</v>
+        <v>53018.29387</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>58879.33690000001</v>
+        <v>66688.73530999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>61564.18297</v>
+        <v>73785.48933</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>84898.25249</v>
+        <v>79138.31959999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>215784.66839</v>
+        <v>177849.364</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>183825.13929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>194330.13773</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>210639.884</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>504.19174</v>
+        <v>34.24508</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>361.64041</v>
+        <v>162.87546</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>242.30028</v>
+        <v>8837.866699999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>18.86899</v>
+        <v>4017.70325</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>592.57574</v>
+        <v>3329.38366</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1404.32919</v>
+        <v>4550.73677</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2408.41989</v>
+        <v>2696.42218</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2620.89583</v>
+        <v>10.71832</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4301.53989</v>
+        <v>1740.97875</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2548.04921</v>
+        <v>4499.74868</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6179.50454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3701.61479</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1773.91122</v>
+        <v>323.33042</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>249.99812</v>
+        <v>194.06317</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1579.78778</v>
+        <v>1588.27111</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>306.52234</v>
+        <v>292.94301</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>1010.63026</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3133.10848</v>
+        <v>1631.14272</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1702.82288</v>
+        <v>1472.88232</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1786.8361</v>
+        <v>403.9069699999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4523.677570000001</v>
+        <v>14.96996</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3814.81414</v>
+        <v>11.6555</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>27478.13794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>11853.26717</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4702.966</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>5540.82781</v>
+        <v>5405.45878</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5548.354560000001</v>
+        <v>6836.367020000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7114.71335</v>
+        <v>8839.64407</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7349.37275</v>
+        <v>7979.60783</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11615.7278</v>
+        <v>11113.48729</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>13932.42554</v>
+        <v>13389.35898</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>16410.91512</v>
+        <v>17592.15163</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>16121.66918</v>
+        <v>16496.63371</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>19255.98986</v>
+        <v>19825.98297</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>41211.33393</v>
+        <v>38064.14926</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>46082.57635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>44775.16253</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>39952.342</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1201.7064</v>
+        <v>1546.62086</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>58.99961</v>
+        <v>395.0719</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>628.6604599999999</v>
+        <v>596.0713900000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1390.12751</v>
+        <v>1380.97777</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1871.94322</v>
+        <v>1321.88977</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>1548.05262</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>358.66398</v>
+        <v>362.01716</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>512.02486</v>
+        <v>482.73636</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>862.6084199999999</v>
+        <v>820.3097700000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>547.25091</v>
+        <v>533.14064</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1403.99125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>526.9906099999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>508.487</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1816.49763</v>
+        <v>1808.15916</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2180.94079</v>
+        <v>2212.34476</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2028.25281</v>
+        <v>2678.36574</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2150.97729</v>
+        <v>2193.67579</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2064.21136</v>
+        <v>1968.32525</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1473.11569</v>
+        <v>1596.87477</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1018.62342</v>
+        <v>971.4646</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1819.70651</v>
+        <v>1784.57435</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1688.93247</v>
+        <v>1401.68982</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1687.69242</v>
+        <v>1561.74397</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1310.8966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1684.16908</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7311.75</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1261.52418</v>
+        <v>1178.17663</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>518.9312199999999</v>
+        <v>450.64216</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1099.34682</v>
+        <v>5270.971239999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2107.15624</v>
+        <v>1553.74437</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1626.85016</v>
+        <v>966.02137</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1412.89487</v>
+        <v>1259.92634</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1576.71182</v>
+        <v>1493.08101</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1298.87079</v>
+        <v>1329.72232</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1303.57147</v>
+        <v>1230.30831</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1165.41955</v>
+        <v>1954.12827</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1551.66063</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>33053.10068</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3183.838</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6512.17575</v>
+        <v>16156.43749</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>7252.94641</v>
+        <v>12090.42991</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9741.281020000002</v>
+        <v>15131.78361</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7555.51406</v>
+        <v>10413.47607</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>12554.28049</v>
+        <v>15082.67611</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>14233.10532</v>
+        <v>18736.59005</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>28154.67536</v>
+        <v>35471.43730000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>23962.51693</v>
+        <v>40909.49920000001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>24409.61813</v>
+        <v>28744.35869</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>141125.74345</v>
+        <v>113648.64071</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>51410.79947999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>51664.28536</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>121147.873</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1.95247</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>39.60169999999999</v>
+        <v>168.03024</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>38.5694</v>
+        <v>47.20815</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>94.56300999999999</v>
+        <v>98.59629</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>246.84651</v>
+        <v>234.90103</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>137.03038</v>
+        <v>136.63928</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>381.90151</v>
+        <v>182.98618</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>195.79267</v>
+        <v>195.28167</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>155.48264</v>
+        <v>8.5259</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>6.355420000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>9.8233</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>10.355</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>164.51862</v>
+        <v>162.20022</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2090,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>156.22313</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>1.17822</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0.663</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0.23299</v>
@@ -2113,290 +2164,330 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>31.868</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>13447.76795</v>
+        <v>13280.61057</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12451.19141</v>
+        <v>12926.84099</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7197.47193</v>
+        <v>10412.30293</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>9052.27075</v>
+        <v>9045.121280000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11452.60113</v>
+        <v>9282.21392</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>10498.11413</v>
+        <v>10168.97234</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6866.369930000001</v>
+        <v>6446.05994</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>13239.98366</v>
+        <v>12166.52999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>28396.83204</v>
+        <v>25351.19543</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>23684.36478</v>
+        <v>17576.15697</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>48401.21708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>47061.72421</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>33790.405</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>21868.31696</v>
+        <v>29361.43638</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>20703.31432</v>
+        <v>25710.66964</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>15277.81427</v>
+        <v>22511.18395</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>14200.47036</v>
+        <v>17982.87131</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>34229.67552</v>
+        <v>31815.31601</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>34357.34396</v>
+        <v>34757.50106</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>42267.12937</v>
+        <v>40683.87934</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>36153.09722</v>
+        <v>54286.29144</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>46443.35002000001</v>
+        <v>53725.85969</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>167562.70606</v>
+        <v>124390.60599</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>107353.05724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>104839.57565</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>93954.485</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2649.33003</v>
+        <v>2336.21243</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1352.73154</v>
+        <v>1947.37202</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1543.21111</v>
+        <v>1163.88995</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2525.467079999999</v>
+        <v>2775.86869</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6977.58505</v>
+        <v>6668.869449999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4069.40567</v>
+        <v>5367.658520000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3162.83708</v>
+        <v>3970.34866</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4512.053699999999</v>
+        <v>5121.20036</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5116.42823</v>
+        <v>6773.38596</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7622.85055</v>
+        <v>6862.491389999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11007.68835</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10799.51866</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7180.221</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3652.85737</v>
+        <v>3574.31092</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2078.62436</v>
+        <v>2907.37419</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1255.77774</v>
+        <v>1441.47082</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2279.69537</v>
+        <v>2249.6269</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4740.98997</v>
+        <v>4055.49486</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>10565.34077</v>
+        <v>10242.16215</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11567.05471</v>
+        <v>6259.83871</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5783.75353</v>
+        <v>6273.75909</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3653.55128</v>
+        <v>3905.58052</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>12395.07004</v>
+        <v>13341.41733</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>13505.53536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>13776.81716</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3953.964</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>512.60423</v>
+        <v>677.86756</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>292.3752699999999</v>
+        <v>615.4256700000001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>72.53077999999999</v>
+        <v>173.70223</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1269.04206</v>
+        <v>1268.00777</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2053.92244</v>
+        <v>1995.80244</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1005.73134</v>
+        <v>51.89966</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>28.92542</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>160.4732</v>
+        <v>149.02036</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>625.5619499999999</v>
+        <v>55.33924</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>94.86117</v>
+        <v>222.31948</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>83.40188999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>550.545</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>6414.7238</v>
+        <v>14490.70763</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>6705.88354</v>
+        <v>9896.74877</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>7700.23302</v>
+        <v>13195.94105</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6266.49225</v>
+        <v>9989.220170000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>16128.82082</v>
+        <v>14263.25399</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>14905.35265</v>
+        <v>15362.62965</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>25089.69406</v>
+        <v>27989.88328</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>20464.86338</v>
+        <v>37562.40173000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>21811.29605</v>
+        <v>27800.57618</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>143426.56165</v>
+        <v>99870.48368999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>49461.92495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45370.88676</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>69440.91099999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>33.96778</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>211.10934</v>
+        <v>263.4641</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>167.11769</v>
+        <v>185.61988</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>41.21814</v>
+        <v>45.85864</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>553.8079</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>468.22338</v>
+        <v>466.27338</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>22.90223</v>
+        <v>86.11523</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>94.35908000000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>21.44362</v>
+        <v>17.75362</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>6.355420000000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>34.63677</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>34.81739</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>165.90801</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>4.40172</v>
+        <v>0.10313</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>1.04185</v>
@@ -2411,7 +2502,7 @@
         <v>0.55026</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>3.18506</v>
+        <v>0.78506</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>95.80515</v>
@@ -2425,371 +2516,421 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8438.925740000001</v>
+        <v>8082.46205</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>10058.18855</v>
+        <v>10080.18176</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4537.90208</v>
+        <v>6349.51817</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1813.68542</v>
+        <v>1649.4191</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3764.91791</v>
+        <v>4268.45594</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3342.73989</v>
+        <v>3266.32744</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2392.53081</v>
+        <v>2347.98298</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5041.789180000001</v>
+        <v>4989.74567</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>15215.06889</v>
+        <v>15173.22417</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4017.00723</v>
+        <v>4087.53868</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>33259.86992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>34774.13379</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>12828.302</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>19728.04287</v>
+        <v>20410.9047</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>14691.63977</v>
+        <v>17346.02692</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>17475.1596</v>
+        <v>24534.70053</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>23968.70454</v>
+        <v>28700.46772</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>32898.10287</v>
+        <v>36750.04901</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>38097.98563</v>
+        <v>43120.57685</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>44385.06623</v>
+        <v>45665.10216</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>42991.8218</v>
+        <v>46455.23933</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>51241.71617</v>
+        <v>56206.37885</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>90284.04576000001</v>
+        <v>87967.35331000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>97516.57243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>110742.53482</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>83603.23</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>18684.8263</v>
+        <v>18464.76017</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>14135.93184</v>
+        <v>15144.19826</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>16914.1607</v>
+        <v>20272.95501</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>22663.69391</v>
+        <v>26394.02262</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>31707.15622</v>
+        <v>34436.12687</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>37029.06197</v>
+        <v>42323.78181</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>43405.13376</v>
+        <v>44835.86326000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>42212.03194000001</v>
+        <v>45795.44646</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>49287.33559</v>
+        <v>54291.69249</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>88688.05345000001</v>
+        <v>86668.70859000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>96166.43423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>109622.15388</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>81884.33</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1043.21657</v>
+        <v>1946.14453</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>555.7079299999999</v>
+        <v>2201.82866</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>560.9989</v>
+        <v>4261.745519999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1305.01063</v>
+        <v>2306.4451</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1190.94665</v>
+        <v>2313.92214</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1068.92366</v>
+        <v>796.7950400000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>979.9324700000001</v>
+        <v>829.2389000000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>779.78986</v>
+        <v>659.79287</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1954.38058</v>
+        <v>1914.68636</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1595.99231</v>
+        <v>1298.64472</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1350.1382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1120.38094</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1718.9</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>51013.67514</v>
+        <v>50893.92214</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>96291.71505</v>
+        <v>88973.33203999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>101957.98564</v>
+        <v>117768.30232</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>117376.35933</v>
+        <v>114929.13891</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>139523.02594</v>
+        <v>107009.07341</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>123517.66989</v>
+        <v>137222.87617</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>169749.04148</v>
+        <v>166677.30366</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>173480.25994</v>
+        <v>145628.71532</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>226792.73676</v>
+        <v>236970.50684</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>200395.85866</v>
+        <v>188629.61824</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>264589.59799</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>253040.60615</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>461304.921</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9580.45867</v>
+        <v>8298.89458</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7093.474720000001</v>
+        <v>6833.459949999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>10773.08677</v>
+        <v>11249.78584</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11168.04361</v>
+        <v>20691.61027</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>21194.16769</v>
+        <v>24823.30073</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>23887.11955</v>
+        <v>19884.87522</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18881.58839</v>
+        <v>18302.1507</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>24816.21801</v>
+        <v>23450.95637</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>32554.91886</v>
+        <v>28435.30172</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>41356.66398999999</v>
+        <v>30685.11256</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>46158.01798</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>43242.72088</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>67138.60799999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>194.70443</v>
+        <v>234.12625</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>47.98167</v>
+        <v>41.87524</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>205.30868</v>
+        <v>202.43589</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>125.22787</v>
+        <v>124.37216</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>809.59561</v>
+        <v>1155.69538</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>823.34924</v>
+        <v>712.3658800000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>547.6308</v>
+        <v>547.3996800000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>374.03507</v>
+        <v>596.64721</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>413.14349</v>
+        <v>336.21635</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>633.9546899999999</v>
+        <v>633.0546899999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1790.92836</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>954.4863399999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>702.145</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9385.75424</v>
+        <v>8064.76833</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7045.493050000001</v>
+        <v>6791.58471</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>10567.77809</v>
+        <v>11047.34995</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11042.81574</v>
+        <v>20567.23811</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>20384.57208</v>
+        <v>23667.60535</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23063.77031</v>
+        <v>19172.50934</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>18333.95759</v>
+        <v>17754.75102</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>24442.18294</v>
+        <v>22854.30916</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>32141.77537</v>
+        <v>28099.08537</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>40722.70929999999</v>
+        <v>30052.05787</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>44367.08962000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>42288.23454</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>66436.463</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>13994.05241</v>
+        <v>29182.37757</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>9917.267030000001</v>
+        <v>11331.96276</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>139370.55792</v>
+        <v>141388.00978</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>18157.41468</v>
+        <v>18361.52667</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>24691.24706</v>
+        <v>19964.11156</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>95792.15297999998</v>
+        <v>83007.86604000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>25223.11463</v>
+        <v>22323.28682</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>154616.6364</v>
+        <v>144190.39309</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>45178.45821</v>
+        <v>33591.88553</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>133048.50739</v>
+        <v>116424.3441</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>43836.34697</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>41948.58572</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>45852.579</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>712.79641</v>
+        <v>230.91241</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>271.7869</v>
+        <v>284.60298</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>117.92236</v>
+        <v>126.44587</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>1496.36505</v>
@@ -2798,220 +2939,248 @@
         <v>452.86837</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>251.95668</v>
+        <v>253.74311</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>237.6078</v>
+        <v>188.6078</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>285.28795</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>477.98976</v>
+        <v>456.80594</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>62.28502</v>
+        <v>552.02622</v>
       </c>
       <c r="M52" s="48" t="n">
+        <v>39.27799</v>
+      </c>
+      <c r="N52" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>615.55379</v>
+        <v>556.18843</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>469.79376</v>
+        <v>1049.00873</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3160.31992</v>
+        <v>3036.75542</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1450.99378</v>
+        <v>1123.59313</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3294.38635</v>
+        <v>1428.75946</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1292.06318</v>
+        <v>1264.83856</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1659.87357</v>
+        <v>1309.96489</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1535.90164</v>
+        <v>3604.8672</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1059.87498</v>
+        <v>2131.08183</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1452.139</v>
+        <v>2323.47612</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1515.51532</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>657.38052</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2273.18</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12665.70221</v>
+        <v>28395.27673</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9175.686369999999</v>
+        <v>9998.351050000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>136092.31564</v>
+        <v>138224.80849</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>15210.05585</v>
+        <v>15741.56849</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>20943.99234</v>
+        <v>18082.48373</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>94248.13312</v>
+        <v>81489.28437000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>23325.63326</v>
+        <v>20824.71413</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>152795.44681</v>
+        <v>140300.23794</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>43640.59347</v>
+        <v>31003.99776</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>131534.08337</v>
+        <v>113548.84176</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>42320.83165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>41251.92721</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>43579.399</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>46600.0814</v>
+        <v>30010.43915</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>93467.92273999999</v>
+        <v>84474.82922999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-26639.48551</v>
+        <v>-12369.92162</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>110386.98826</v>
+        <v>117259.22251</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>136025.94657</v>
+        <v>111868.26258</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>51612.63646</v>
+        <v>74099.88535</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>163407.51524</v>
+        <v>162656.16754</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>43679.84155</v>
+        <v>24889.2786</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>214169.19741</v>
+        <v>231813.92303</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>108704.01526</v>
+        <v>102890.3867</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>266911.269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>254334.74131</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>482590.95</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>14827.18628</v>
+        <v>15369.66278</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>21695.09628</v>
+        <v>21009.5862</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>25996.25948</v>
+        <v>27527.50646</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25016.09375</v>
+        <v>27074.0425</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>39347.30895</v>
+        <v>39881.78186</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>36215.23314</v>
+        <v>36808.66314</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>45778.40387</v>
+        <v>47152.24611</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>46963.82412999999</v>
+        <v>47104.56174</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>47434.64229</v>
+        <v>50000.16046</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65614.76909</v>
+        <v>60500.53015999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>72641.97362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>71895.65017000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>105063.712</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>31772.89512</v>
+        <v>14640.77637</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>71772.82646</v>
+        <v>63465.24303</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-52635.74498999999</v>
+        <v>-39897.42808</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>85370.89450999998</v>
+        <v>90185.18001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>96678.63762000001</v>
+        <v>71986.48071999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>15397.40332</v>
+        <v>37291.22221</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>117629.11137</v>
+        <v>115503.92143</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3283.98258</v>
+        <v>-22215.28314</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>166734.55512</v>
+        <v>181813.76257</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>43089.24617</v>
+        <v>42389.85654</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>194269.29538</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>182439.09114</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>377527.238</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>849</v>
+        <v>674</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>923</v>
+        <v>748</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1069</v>
+        <v>920</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1150</v>
+        <v>955</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1319</v>
+        <v>1107</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1445</v>
+        <v>1211</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1622</v>
+        <v>1344</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1709</v>
+        <v>1356</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1877</v>
+        <v>1474</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1186</v>
+        <v>1009</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1005</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>